--- a/q1_dataFiles/Zwischensitzung_DopingNordpol.xlsx
+++ b/q1_dataFiles/Zwischensitzung_DopingNordpol.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40292837-9563-4F4A-AD09-09245BB88AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
+    <sheet name="Rentierdaten" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -581,6 +583,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA815C3-E39F-49C8-B7D0-972825F4F62B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="4476750"/>
+          <a:ext cx="4514850" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Den</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t> Brief vom Weihnachtsmann mit den statistischen Fragen an Sie finden Sie auf der Website unter:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t>https://quantigoettingen.github.io/quantigoettingen/page-zwischensitzung.html</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,17 +963,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1187,5 +1280,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>